--- a/CATEGORIAL SIZE card sorting data/animals_cards.xlsx
+++ b/CATEGORIAL SIZE card sorting data/animals_cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaritapopova/Desktop/size matters/SizeMatters/CATEGORIAL SIZE card sorting data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29E51AD-9F46-4C42-94BC-53E75DA7191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E665B-ABF4-9B4E-975E-BCEE49DD0695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="6500" windowWidth="23240" windowHeight="10340" xr2:uid="{B4911AB9-F33F-2F46-B1CA-DAC93E9460F5}"/>
   </bookViews>
@@ -899,5 +899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>